--- a/biology/Zoologie/Faviidae/Faviidae.xlsx
+++ b/biology/Zoologie/Faviidae/Faviidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Faviidae sont une famille de coraux scléractiniaires (coraux durs).
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour le World Register of Marine Species[2], cette famille remplace celle des Mussidae Ortmann, 1890 et certains genres affectés précédemment aux Mussidae ont été transférés vers la famille des Merulinidae. Ils considèrent que cette famille a été créée par Henri Milne-Edwards &amp; Jules Haime en 1857.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour le World Register of Marine Species, cette famille remplace celle des Mussidae Ortmann, 1890 et certains genres affectés précédemment aux Mussidae ont été transférés vers la famille des Merulinidae. Ils considèrent que cette famille a été créée par Henri Milne-Edwards &amp; Jules Haime en 1857.
 Pour d'autres sources, dont l’ITIS ou Paleobiology Database, cette famille a été créée par John Walter Gregory en 1900.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (2/3/2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (2/3/2020) :
 Colpophyllia Milne Edwards &amp; Haime, 1848
 Diploria Milne Edwards &amp; Haime, 1848
 Favia De Blainville, 1820
@@ -556,7 +572,7 @@
 Mussa Oken, 1815
 Mycetophyllia Milne Edwards &amp; Haime, 1848
 Scolymia Haime, 1852
-Selon ITIS      (20 février 2014)[3] :
+Selon ITIS      (20 février 2014) :
 genre Astreosmilia Duncan, 1867
 genre Australogyra Veron, 1982
 genre Barabattoai Yabe &amp; Sugiyama, 1941
